--- a/CashFlow/ATVI_cashflow.xlsx
+++ b/CashFlow/ATVI_cashflow.xlsx
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1000000.0</v>
+        <v>-39000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>51000000.0</v>
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-10000000.0</v>
+        <v>854000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-62000000.0</v>
+        <v>851000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-112000000.0</v>
+        <v>619000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-431000000.0</v>
+        <v>142000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-364000000.0</v>
+        <v>-81000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-415000000.0</v>
